--- a/dist/files/xls/shablon-pz.xlsx
+++ b/dist/files/xls/shablon-pz.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\ОБНОВЛЕНИЕ НА САЙТЕ\old\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\ОБНОВЛЕНИЕ НА САЙТЕ\NEW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,23 +24,23 @@
     <definedName name="_FilterDatabase" localSheetId="6" hidden="1">'ВЕДОМОСТЬ МАТЕРИАЛОВ'!$A$2:$M$28</definedName>
     <definedName name="_FilterDatabase" localSheetId="5" hidden="1">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ'!#REF!</definedName>
     <definedName name="_FilterDatabase" localSheetId="4" hidden="1">'ВЕДОМОСТЬ ФУРНИТУРЫ'!$A$2:$K$27</definedName>
-    <definedName name="address">'лист титульный ПЗ'!$N$14</definedName>
-    <definedName name="agent">'лист титульный ПЗ'!$N$13</definedName>
-    <definedName name="builder">'лист титульный ПЗ'!$N$21</definedName>
-    <definedName name="client">'лист титульный ПЗ'!$N$12</definedName>
-    <definedName name="complect">'лист титульный ПЗ'!$N$17</definedName>
-    <definedName name="floor">'лист титульный ПЗ'!$N$15</definedName>
-    <definedName name="order">'лист титульный ПЗ'!$N$18</definedName>
-    <definedName name="Print_Area" localSheetId="0">'лист титульный ПЗ'!$A$2:$W$30</definedName>
+    <definedName name="address">'лист титульный ПЗ'!$N$16</definedName>
+    <definedName name="agent">'лист титульный ПЗ'!$N$15</definedName>
+    <definedName name="builder">'лист титульный ПЗ'!$N$23</definedName>
+    <definedName name="client">'лист титульный ПЗ'!$N$14</definedName>
+    <definedName name="complect">'лист титульный ПЗ'!$N$19</definedName>
+    <definedName name="floor">'лист титульный ПЗ'!$N$17</definedName>
+    <definedName name="order">'лист титульный ПЗ'!$N$20</definedName>
+    <definedName name="Print_Area" localSheetId="0">'лист титульный ПЗ'!$A$2:$W$32</definedName>
     <definedName name="Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$35</definedName>
-    <definedName name="product">'лист титульный ПЗ'!$N$19</definedName>
-    <definedName name="room">'лист титульный ПЗ'!$N$16</definedName>
-    <definedName name="RPG">'лист титульный ПЗ'!$N$49</definedName>
-    <definedName name="VAP">'лист титульный ПЗ'!$N$23</definedName>
+    <definedName name="product">'лист титульный ПЗ'!$N$21</definedName>
+    <definedName name="room">'лист титульный ПЗ'!$N$18</definedName>
+    <definedName name="RPG">'лист титульный ПЗ'!$N$51</definedName>
+    <definedName name="VAP">'лист титульный ПЗ'!$N$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'ВЕДОМОСТЬ МАТЕРИАЛОВ'!$A$1:$M$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'ВЕДОМОСТЬ СТЕКОЛ И ЗЕРКАЛ'!$A$1:$S$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'ВЕДОМОСТЬ ФУРНИТУРЫ'!$A$1:$K$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'лист титульный ПЗ'!$A$1:$W$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'лист титульный ПЗ'!$A$1:$W$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'паспорт изделий заказа'!$A$1:$M$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'спецификация конструкторская'!$A$1:$M$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ТИТУЛЬНЫЙ ЛИСТ ВПИ'!$A$1:$T$35</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="215">
   <si>
     <t>№заказа</t>
   </si>
@@ -798,6 +798,12 @@
   </si>
   <si>
     <t>*УДОБСТВО СБОРКИ НА ОБЪЕКТЕ/ГАБАРИТЫ/МП/УЗЛЫ/КОДЫ СБОРКИ И МОНТАЖА/ВПИ В ЧАСТИ МОНТАЖНЫХ МАТЕРИАЛОВ И ЭЛЕКТРИКИ*</t>
+  </si>
+  <si>
+    <t>ГИМУ</t>
+  </si>
+  <si>
+    <t>ПОГОНИН С.</t>
   </si>
 </sst>
 </file>
@@ -1221,6 +1227,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="ISOCPEUR"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -1228,6 +1235,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="ISOCPEUR"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -2410,7 +2418,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2462,12 +2469,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2483,9 +2484,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2519,6 +2517,17 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2565,6 +2574,21 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="52" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2936,24 +2960,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="52" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3288,13 +3294,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24:P24"/>
+      <selection activeCell="N26" sqref="N26:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3332,7 +3338,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-      <c r="I1" s="181" t="s">
+      <c r="I1" s="178" t="s">
         <v>127</v>
       </c>
       <c r="J1" s="145"/>
@@ -3376,44 +3382,44 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="174" t="s">
+      <c r="I2" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="176"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="173"/>
       <c r="O2" s="98"/>
-      <c r="P2" s="215" t="s">
+      <c r="P2" s="221" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="218"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="224"/>
       <c r="X2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="151"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="150"/>
-      <c r="AM2" s="150"/>
-      <c r="AN2" s="150"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="149"/>
       <c r="AO2" s="12"/>
     </row>
-    <row r="3" spans="1:41" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -3433,7 +3439,7 @@
         <v>156</v>
       </c>
       <c r="M3" s="101"/>
-      <c r="N3" s="160" t="s">
+      <c r="N3" s="159" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="98"/>
@@ -3444,10 +3450,10 @@
         <v>35</v>
       </c>
       <c r="R3" s="101"/>
-      <c r="S3" s="222" t="s">
+      <c r="S3" s="228" t="s">
         <v>156</v>
       </c>
-      <c r="T3" s="222"/>
+      <c r="T3" s="228"/>
       <c r="U3" s="102" t="s">
         <v>33</v>
       </c>
@@ -3455,23 +3461,23 @@
       <c r="W3" s="26"/>
       <c r="X3" s="12"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="264"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="264"/>
-      <c r="AD3" s="264"/>
-      <c r="AE3" s="264"/>
-      <c r="AF3" s="264"/>
+      <c r="AA3" s="270"/>
+      <c r="AB3" s="270"/>
+      <c r="AC3" s="270"/>
+      <c r="AD3" s="270"/>
+      <c r="AE3" s="270"/>
+      <c r="AF3" s="270"/>
       <c r="AG3" s="98"/>
-      <c r="AH3" s="222"/>
-      <c r="AI3" s="222"/>
-      <c r="AJ3" s="222"/>
-      <c r="AK3" s="222"/>
-      <c r="AL3" s="222"/>
-      <c r="AM3" s="222"/>
+      <c r="AH3" s="228"/>
+      <c r="AI3" s="228"/>
+      <c r="AJ3" s="228"/>
+      <c r="AK3" s="228"/>
+      <c r="AL3" s="228"/>
+      <c r="AM3" s="228"/>
       <c r="AN3" s="144"/>
       <c r="AO3" s="25"/>
     </row>
-    <row r="4" spans="1:41" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3487,11 +3493,11 @@
         <v>30</v>
       </c>
       <c r="K4" s="98"/>
-      <c r="L4" s="173" t="s">
+      <c r="L4" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="173"/>
-      <c r="N4" s="161" t="s">
+      <c r="M4" s="170"/>
+      <c r="N4" s="160" t="s">
         <v>163</v>
       </c>
       <c r="O4" s="98"/>
@@ -3502,29 +3508,29 @@
         <v>30</v>
       </c>
       <c r="R4" s="98"/>
-      <c r="S4" s="221" t="s">
+      <c r="S4" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="221"/>
-      <c r="U4" s="158" t="s">
+      <c r="T4" s="227"/>
+      <c r="U4" s="157" t="s">
         <v>163</v>
       </c>
       <c r="V4" s="146"/>
       <c r="W4" s="147"/>
       <c r="X4" s="12"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="152"/>
+      <c r="AA4" s="151"/>
       <c r="AB4" s="100"/>
       <c r="AC4" s="101"/>
-      <c r="AD4" s="222"/>
-      <c r="AE4" s="222"/>
-      <c r="AF4" s="153"/>
+      <c r="AD4" s="228"/>
+      <c r="AE4" s="228"/>
+      <c r="AF4" s="152"/>
       <c r="AG4" s="98"/>
-      <c r="AH4" s="152"/>
+      <c r="AH4" s="151"/>
       <c r="AI4" s="100"/>
       <c r="AJ4" s="101"/>
-      <c r="AK4" s="222"/>
-      <c r="AL4" s="222"/>
+      <c r="AK4" s="228"/>
+      <c r="AL4" s="228"/>
       <c r="AM4" s="106"/>
       <c r="AN4" s="106"/>
       <c r="AO4" s="25"/>
@@ -3538,32 +3544,32 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="180" t="s">
+      <c r="I5" s="177" t="s">
         <v>204</v>
       </c>
       <c r="J5" s="102" t="s">
         <v>205</v>
       </c>
       <c r="K5" s="98"/>
-      <c r="L5" s="173" t="s">
+      <c r="L5" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="173"/>
-      <c r="N5" s="160" t="s">
+      <c r="M5" s="170"/>
+      <c r="N5" s="159" t="s">
         <v>203</v>
       </c>
       <c r="O5" s="98"/>
-      <c r="P5" s="180" t="s">
+      <c r="P5" s="177" t="s">
         <v>204</v>
       </c>
       <c r="Q5" s="102" t="s">
         <v>205</v>
       </c>
       <c r="R5" s="98"/>
-      <c r="S5" s="221" t="s">
+      <c r="S5" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="221"/>
+      <c r="T5" s="227"/>
       <c r="U5" s="102" t="s">
         <v>203</v>
       </c>
@@ -3571,23 +3577,23 @@
       <c r="W5" s="11"/>
       <c r="X5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="152"/>
+      <c r="AA5" s="151"/>
       <c r="AB5" s="102"/>
       <c r="AC5" s="98"/>
-      <c r="AD5" s="221"/>
-      <c r="AE5" s="221"/>
-      <c r="AF5" s="154"/>
+      <c r="AD5" s="227"/>
+      <c r="AE5" s="227"/>
+      <c r="AF5" s="153"/>
       <c r="AG5" s="98"/>
-      <c r="AH5" s="152"/>
+      <c r="AH5" s="151"/>
       <c r="AI5" s="102"/>
       <c r="AJ5" s="98"/>
-      <c r="AK5" s="221"/>
-      <c r="AL5" s="221"/>
+      <c r="AK5" s="227"/>
+      <c r="AL5" s="227"/>
       <c r="AM5" s="107"/>
       <c r="AN5" s="107"/>
       <c r="AO5" s="123"/>
     </row>
-    <row r="6" spans="1:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3601,7 +3607,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="162"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="98"/>
       <c r="P6" s="99" t="s">
         <v>27</v>
@@ -3610,10 +3616,10 @@
         <v>126</v>
       </c>
       <c r="R6" s="98"/>
-      <c r="S6" s="221" t="s">
+      <c r="S6" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="221"/>
+      <c r="T6" s="227"/>
       <c r="U6" s="102" t="s">
         <v>125</v>
       </c>
@@ -3621,18 +3627,18 @@
       <c r="W6" s="27"/>
       <c r="X6" s="12"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="152"/>
+      <c r="AA6" s="151"/>
       <c r="AB6" s="102"/>
       <c r="AC6" s="98"/>
-      <c r="AD6" s="221"/>
-      <c r="AE6" s="221"/>
-      <c r="AF6" s="153"/>
+      <c r="AD6" s="227"/>
+      <c r="AE6" s="227"/>
+      <c r="AF6" s="152"/>
       <c r="AG6" s="98"/>
-      <c r="AH6" s="152"/>
+      <c r="AH6" s="151"/>
       <c r="AI6" s="102"/>
       <c r="AJ6" s="98"/>
-      <c r="AK6" s="221"/>
-      <c r="AL6" s="221"/>
+      <c r="AK6" s="227"/>
+      <c r="AL6" s="227"/>
       <c r="AM6" s="106"/>
       <c r="AN6" s="106"/>
       <c r="AO6" s="12"/>
@@ -3653,11 +3659,11 @@
         <v>31</v>
       </c>
       <c r="K7" s="98"/>
-      <c r="L7" s="173" t="s">
+      <c r="L7" s="170" t="s">
         <v>157</v>
       </c>
-      <c r="M7" s="173"/>
-      <c r="N7" s="160" t="s">
+      <c r="M7" s="170"/>
+      <c r="N7" s="159" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="98"/>
@@ -3668,10 +3674,10 @@
         <v>153</v>
       </c>
       <c r="R7" s="98"/>
-      <c r="S7" s="221" t="s">
+      <c r="S7" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="221"/>
+      <c r="T7" s="227"/>
       <c r="U7" s="102" t="s">
         <v>154</v>
       </c>
@@ -3686,11 +3692,11 @@
       <c r="AE7" s="12"/>
       <c r="AF7" s="130"/>
       <c r="AG7" s="98"/>
-      <c r="AH7" s="152"/>
+      <c r="AH7" s="151"/>
       <c r="AI7" s="102"/>
       <c r="AJ7" s="98"/>
-      <c r="AK7" s="221"/>
-      <c r="AL7" s="221"/>
+      <c r="AK7" s="227"/>
+      <c r="AL7" s="227"/>
       <c r="AM7" s="102"/>
       <c r="AN7" s="102"/>
       <c r="AO7" s="24"/>
@@ -3711,11 +3717,11 @@
         <v>35</v>
       </c>
       <c r="K8" s="101"/>
-      <c r="L8" s="222" t="s">
+      <c r="L8" s="228" t="s">
         <v>156</v>
       </c>
-      <c r="M8" s="222"/>
-      <c r="N8" s="102" t="s">
+      <c r="M8" s="228"/>
+      <c r="N8" s="159" t="s">
         <v>33</v>
       </c>
       <c r="O8" s="106"/>
@@ -3726,10 +3732,10 @@
         <v>31</v>
       </c>
       <c r="R8" s="98"/>
-      <c r="S8" s="221" t="s">
+      <c r="S8" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="221"/>
+      <c r="T8" s="227"/>
       <c r="U8" s="102" t="s">
         <v>171</v>
       </c>
@@ -3737,23 +3743,23 @@
       <c r="W8" s="28"/>
       <c r="X8" s="12"/>
       <c r="Z8" s="12"/>
-      <c r="AA8" s="152"/>
+      <c r="AA8" s="151"/>
       <c r="AB8" s="102"/>
       <c r="AC8" s="98"/>
-      <c r="AD8" s="221"/>
-      <c r="AE8" s="221"/>
-      <c r="AF8" s="153"/>
+      <c r="AD8" s="227"/>
+      <c r="AE8" s="227"/>
+      <c r="AF8" s="152"/>
       <c r="AG8" s="98"/>
-      <c r="AH8" s="152"/>
+      <c r="AH8" s="151"/>
       <c r="AI8" s="102"/>
       <c r="AJ8" s="98"/>
-      <c r="AK8" s="221"/>
-      <c r="AL8" s="221"/>
+      <c r="AK8" s="227"/>
+      <c r="AL8" s="227"/>
       <c r="AM8" s="106"/>
       <c r="AN8" s="106"/>
       <c r="AO8" s="104"/>
     </row>
-    <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3762,46 +3768,52 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="149"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="12"/>
+      <c r="I9" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="101"/>
+      <c r="L9" s="195" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="195"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="106"/>
       <c r="P9" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="177" t="s">
-        <v>172</v>
-      </c>
-      <c r="R9" s="98"/>
-      <c r="S9" s="183" t="s">
+      <c r="Q9" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="101"/>
+      <c r="S9" s="195" t="s">
         <v>168</v>
       </c>
-      <c r="T9" s="183"/>
-      <c r="U9" s="159"/>
-      <c r="V9" s="183"/>
+      <c r="T9" s="195"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="106"/>
       <c r="W9" s="28"/>
       <c r="X9" s="12"/>
       <c r="Z9" s="12"/>
-      <c r="AA9" s="152"/>
+      <c r="AA9" s="151"/>
       <c r="AB9" s="102"/>
       <c r="AC9" s="98"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="155"/>
+      <c r="AD9" s="195"/>
+      <c r="AE9" s="195"/>
+      <c r="AF9" s="152"/>
       <c r="AG9" s="98"/>
-      <c r="AH9" s="152"/>
+      <c r="AH9" s="151"/>
       <c r="AI9" s="102"/>
       <c r="AJ9" s="98"/>
-      <c r="AK9" s="143"/>
-      <c r="AL9" s="143"/>
-      <c r="AM9" s="143"/>
-      <c r="AN9" s="143"/>
+      <c r="AK9" s="195"/>
+      <c r="AL9" s="195"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="106"/>
       <c r="AO9" s="104"/>
     </row>
-    <row r="10" spans="1:41" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -3810,183 +3822,185 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="283"/>
-      <c r="Q10" s="284"/>
-      <c r="R10" s="284"/>
-      <c r="S10" s="165" t="s">
-        <v>169</v>
-      </c>
-      <c r="T10" s="165"/>
-      <c r="U10" s="166" t="s">
-        <v>170</v>
-      </c>
-      <c r="V10" s="166"/>
-      <c r="W10" s="15"/>
+      <c r="I10" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="197" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="101"/>
+      <c r="L10" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="170"/>
+      <c r="N10" s="199" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10" s="195"/>
+      <c r="P10" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="197" t="s">
+        <v>213</v>
+      </c>
+      <c r="R10" s="98"/>
+      <c r="S10" s="227" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="227"/>
+      <c r="U10" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="V10" s="106"/>
+      <c r="W10" s="28"/>
       <c r="X10" s="12"/>
       <c r="Z10" s="12"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
+      <c r="AA10" s="151"/>
+      <c r="AB10" s="102"/>
       <c r="AC10" s="98"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="156"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="143"/>
+      <c r="AF10" s="154"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="102"/>
       <c r="AJ10" s="98"/>
-      <c r="AK10" s="157"/>
-      <c r="AL10" s="157"/>
-      <c r="AM10" s="157"/>
-      <c r="AN10" s="157"/>
-      <c r="AO10" s="12"/>
-    </row>
-    <row r="11" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="253" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="254" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="256" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="256" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="257"/>
-      <c r="I11" s="229" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11" s="230"/>
-      <c r="K11" s="230"/>
-      <c r="L11" s="230"/>
-      <c r="M11" s="230"/>
-      <c r="N11" s="230"/>
-      <c r="O11" s="230"/>
-      <c r="P11" s="230"/>
-      <c r="Q11" s="230"/>
-      <c r="R11" s="223" t="s">
-        <v>179</v>
-      </c>
-      <c r="S11" s="224"/>
-      <c r="T11" s="224"/>
-      <c r="U11" s="224"/>
-      <c r="V11" s="224"/>
-      <c r="W11" s="225"/>
+      <c r="AK10" s="143"/>
+      <c r="AL10" s="143"/>
+      <c r="AM10" s="143"/>
+      <c r="AN10" s="143"/>
+      <c r="AO10" s="104"/>
+    </row>
+    <row r="11" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="199"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="174" t="s">
+        <v>172</v>
+      </c>
+      <c r="R11" s="98"/>
+      <c r="S11" s="195" t="s">
+        <v>168</v>
+      </c>
+      <c r="T11" s="195"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="28"/>
       <c r="X11" s="12"/>
       <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="12"/>
-    </row>
-    <row r="12" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="244"/>
-      <c r="B12" s="255"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="238" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="238" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="238" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="238" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="235" t="s">
-        <v>165</v>
-      </c>
-      <c r="I12" s="184"/>
-      <c r="J12" s="270" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="270"/>
-      <c r="L12" s="270"/>
-      <c r="M12" s="270"/>
-      <c r="N12" s="231" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" s="231"/>
-      <c r="P12" s="231"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="226"/>
-      <c r="S12" s="227"/>
-      <c r="T12" s="227"/>
-      <c r="U12" s="227"/>
-      <c r="V12" s="227"/>
-      <c r="W12" s="228"/>
+      <c r="AA11" s="151"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="195"/>
+      <c r="AE11" s="195"/>
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="195"/>
+      <c r="AL11" s="195"/>
+      <c r="AM11" s="195"/>
+      <c r="AN11" s="195"/>
+      <c r="AO11" s="104"/>
+    </row>
+    <row r="12" spans="1:41" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="289"/>
+      <c r="Q12" s="290"/>
+      <c r="R12" s="290"/>
+      <c r="S12" s="164" t="s">
+        <v>169</v>
+      </c>
+      <c r="T12" s="164"/>
+      <c r="U12" s="165" t="s">
+        <v>170</v>
+      </c>
+      <c r="V12" s="165"/>
+      <c r="W12" s="15"/>
       <c r="X12" s="12"/>
       <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="148"/>
+      <c r="AF12" s="155"/>
       <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="150"/>
-      <c r="AN12" s="12"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="156"/>
+      <c r="AL12" s="156"/>
+      <c r="AM12" s="156"/>
+      <c r="AN12" s="156"/>
       <c r="AO12" s="12"/>
     </row>
-    <row r="13" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="244"/>
-      <c r="B13" s="255"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="258"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="269" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" s="269"/>
-      <c r="L13" s="269"/>
-      <c r="M13" s="269"/>
-      <c r="N13" s="233" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" s="233"/>
-      <c r="P13" s="233"/>
-      <c r="Q13" s="233"/>
-      <c r="R13" s="233"/>
-      <c r="S13" s="271" t="s">
-        <v>198</v>
-      </c>
-      <c r="T13" s="272"/>
-      <c r="U13" s="272"/>
-      <c r="V13" s="272"/>
-      <c r="W13" s="273"/>
+    <row r="13" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="259" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="260" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="262" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="262" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="262"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="263"/>
+      <c r="I13" s="235" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="236"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="236"/>
+      <c r="N13" s="236"/>
+      <c r="O13" s="236"/>
+      <c r="P13" s="236"/>
+      <c r="Q13" s="236"/>
+      <c r="R13" s="229" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="230"/>
+      <c r="T13" s="230"/>
+      <c r="U13" s="230"/>
+      <c r="V13" s="230"/>
+      <c r="W13" s="231"/>
       <c r="X13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -4005,50 +4019,44 @@
       <c r="AN13" s="12"/>
       <c r="AO13" s="12"/>
     </row>
-    <row r="14" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="244" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="219" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="219" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="219" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="219" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="219" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="238" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="235" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="269" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="269"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="269"/>
-      <c r="N14" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="O14" s="231"/>
-      <c r="P14" s="231"/>
-      <c r="Q14" s="231"/>
-      <c r="R14" s="231"/>
-      <c r="S14" s="274"/>
-      <c r="T14" s="275"/>
-      <c r="U14" s="275"/>
-      <c r="V14" s="275"/>
-      <c r="W14" s="276"/>
+    <row r="14" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="250"/>
+      <c r="B14" s="261"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="244" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="244" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="244" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="244" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="241" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="180"/>
+      <c r="J14" s="276" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="276"/>
+      <c r="L14" s="276"/>
+      <c r="M14" s="276"/>
+      <c r="N14" s="237" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="237"/>
+      <c r="P14" s="237"/>
+      <c r="Q14" s="238"/>
+      <c r="R14" s="232"/>
+      <c r="S14" s="233"/>
+      <c r="T14" s="233"/>
+      <c r="U14" s="233"/>
+      <c r="V14" s="233"/>
+      <c r="W14" s="234"/>
       <c r="X14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
@@ -4063,38 +4071,40 @@
       <c r="AJ14" s="12"/>
       <c r="AK14" s="12"/>
       <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
+      <c r="AM14" s="149"/>
       <c r="AN14" s="12"/>
       <c r="AO14" s="12"/>
     </row>
-    <row r="15" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="244"/>
-      <c r="B15" s="219"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="236"/>
+    <row r="15" spans="1:41" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="250"/>
+      <c r="B15" s="261"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="264"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="269" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="269"/>
-      <c r="L15" s="269"/>
-      <c r="M15" s="269"/>
-      <c r="N15" s="234" t="s">
-        <v>133</v>
-      </c>
-      <c r="O15" s="234"/>
-      <c r="P15" s="234"/>
-      <c r="Q15" s="234"/>
-      <c r="R15" s="234"/>
-      <c r="S15" s="274"/>
-      <c r="T15" s="275"/>
-      <c r="U15" s="275"/>
-      <c r="V15" s="275"/>
-      <c r="W15" s="276"/>
+      <c r="J15" s="275" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="275"/>
+      <c r="L15" s="275"/>
+      <c r="M15" s="275"/>
+      <c r="N15" s="239" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" s="239"/>
+      <c r="P15" s="239"/>
+      <c r="Q15" s="239"/>
+      <c r="R15" s="239"/>
+      <c r="S15" s="277" t="s">
+        <v>198</v>
+      </c>
+      <c r="T15" s="278"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="278"/>
+      <c r="W15" s="279"/>
       <c r="X15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
@@ -4113,34 +4123,50 @@
       <c r="AN15" s="12"/>
       <c r="AO15" s="12"/>
     </row>
-    <row r="16" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="244"/>
-      <c r="B16" s="219"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="236"/>
+    <row r="16" spans="1:41" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="250" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="225" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="225" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="225" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="225" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="225" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="244" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="241" t="s">
+        <v>117</v>
+      </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="269" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="269"/>
-      <c r="L16" s="269"/>
-      <c r="M16" s="269"/>
-      <c r="N16" s="234" t="s">
-        <v>131</v>
-      </c>
-      <c r="O16" s="234"/>
-      <c r="P16" s="234"/>
-      <c r="Q16" s="234"/>
-      <c r="R16" s="234"/>
-      <c r="S16" s="274"/>
-      <c r="T16" s="275"/>
-      <c r="U16" s="275"/>
-      <c r="V16" s="275"/>
-      <c r="W16" s="276"/>
+      <c r="J16" s="275" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="275"/>
+      <c r="L16" s="275"/>
+      <c r="M16" s="275"/>
+      <c r="N16" s="237" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" s="237"/>
+      <c r="P16" s="237"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="237"/>
+      <c r="S16" s="280"/>
+      <c r="T16" s="281"/>
+      <c r="U16" s="281"/>
+      <c r="V16" s="281"/>
+      <c r="W16" s="282"/>
       <c r="X16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -4156,557 +4182,565 @@
       <c r="AK16" s="12"/>
       <c r="AL16" s="12"/>
       <c r="AM16" s="12"/>
-    </row>
-    <row r="17" spans="1:39" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="244"/>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="239" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="236"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="269" t="s">
-        <v>130</v>
-      </c>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="269"/>
-      <c r="N17" s="231" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" s="231"/>
-      <c r="P17" s="231"/>
-      <c r="Q17" s="231"/>
-      <c r="R17" s="231"/>
-      <c r="S17" s="274"/>
-      <c r="T17" s="275"/>
-      <c r="U17" s="275"/>
-      <c r="V17" s="275"/>
-      <c r="W17" s="276"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+    </row>
+    <row r="17" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="250"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="275" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="275"/>
+      <c r="L17" s="275"/>
+      <c r="M17" s="275"/>
+      <c r="N17" s="240" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="240"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="240"/>
+      <c r="R17" s="240"/>
+      <c r="S17" s="280"/>
+      <c r="T17" s="281"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="281"/>
+      <c r="W17" s="282"/>
       <c r="X17" s="12"/>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="263"/>
-      <c r="AD17" s="262"/>
-      <c r="AE17" s="261"/>
-      <c r="AF17" s="263"/>
-      <c r="AG17" s="263"/>
-      <c r="AH17" s="263"/>
-      <c r="AI17" s="263"/>
-      <c r="AJ17" s="263"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
       <c r="AK17" s="12"/>
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
-    </row>
-    <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="244"/>
-      <c r="B18" s="219"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="236"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="270" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="270"/>
-      <c r="L18" s="270"/>
-      <c r="M18" s="270"/>
-      <c r="N18" s="234">
-        <v>500</v>
-      </c>
-      <c r="O18" s="234"/>
-      <c r="P18" s="234"/>
-      <c r="Q18" s="234"/>
-      <c r="R18" s="234"/>
-      <c r="S18" s="274"/>
-      <c r="T18" s="275"/>
-      <c r="U18" s="275"/>
-      <c r="V18" s="275"/>
-      <c r="W18" s="276"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+    </row>
+    <row r="18" spans="1:41" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="250"/>
+      <c r="B18" s="225"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="275" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" s="275"/>
+      <c r="L18" s="275"/>
+      <c r="M18" s="275"/>
+      <c r="N18" s="240" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" s="240"/>
+      <c r="P18" s="240"/>
+      <c r="Q18" s="240"/>
+      <c r="R18" s="240"/>
+      <c r="S18" s="280"/>
+      <c r="T18" s="281"/>
+      <c r="U18" s="281"/>
+      <c r="V18" s="281"/>
+      <c r="W18" s="282"/>
       <c r="X18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AC18" s="263"/>
-      <c r="AD18" s="262"/>
-      <c r="AE18" s="261"/>
-      <c r="AF18" s="263"/>
-      <c r="AG18" s="259"/>
-      <c r="AH18" s="259"/>
-      <c r="AI18" s="262"/>
-      <c r="AJ18" s="261"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
       <c r="AK18" s="12"/>
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
     </row>
-    <row r="19" spans="1:39" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="244"/>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="239"/>
-      <c r="H19" s="236"/>
+    <row r="19" spans="1:41" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="250"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="245" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="242"/>
       <c r="I19" s="12"/>
-      <c r="J19" s="270" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="270"/>
-      <c r="L19" s="270"/>
-      <c r="M19" s="270"/>
-      <c r="N19" s="234" t="s">
-        <v>128</v>
-      </c>
-      <c r="O19" s="234"/>
-      <c r="P19" s="234"/>
-      <c r="Q19" s="234"/>
-      <c r="R19" s="234"/>
-      <c r="S19" s="274"/>
-      <c r="T19" s="275"/>
-      <c r="U19" s="275"/>
-      <c r="V19" s="275"/>
-      <c r="W19" s="276"/>
+      <c r="J19" s="275" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="275"/>
+      <c r="L19" s="275"/>
+      <c r="M19" s="275"/>
+      <c r="N19" s="237" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" s="237"/>
+      <c r="P19" s="237"/>
+      <c r="Q19" s="237"/>
+      <c r="R19" s="237"/>
+      <c r="S19" s="280"/>
+      <c r="T19" s="281"/>
+      <c r="U19" s="281"/>
+      <c r="V19" s="281"/>
+      <c r="W19" s="282"/>
       <c r="X19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
-      <c r="AC19" s="263"/>
-      <c r="AD19" s="262"/>
-      <c r="AE19" s="261"/>
-      <c r="AF19" s="263"/>
-      <c r="AG19" s="259"/>
-      <c r="AH19" s="260"/>
-      <c r="AI19" s="262"/>
-      <c r="AJ19" s="261"/>
+      <c r="AC19" s="269"/>
+      <c r="AD19" s="268"/>
+      <c r="AE19" s="267"/>
+      <c r="AF19" s="269"/>
+      <c r="AG19" s="269"/>
+      <c r="AH19" s="269"/>
+      <c r="AI19" s="269"/>
+      <c r="AJ19" s="269"/>
       <c r="AK19" s="12"/>
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
     </row>
-    <row r="20" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="245"/>
-      <c r="B20" s="220"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="237"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="274"/>
-      <c r="T20" s="275"/>
-      <c r="U20" s="275"/>
-      <c r="V20" s="275"/>
-      <c r="W20" s="276"/>
+    <row r="20" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="250"/>
+      <c r="B20" s="225"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="225"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="276" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="276"/>
+      <c r="L20" s="276"/>
+      <c r="M20" s="276"/>
+      <c r="N20" s="240">
+        <v>500</v>
+      </c>
+      <c r="O20" s="240"/>
+      <c r="P20" s="240"/>
+      <c r="Q20" s="240"/>
+      <c r="R20" s="240"/>
+      <c r="S20" s="280"/>
+      <c r="T20" s="281"/>
+      <c r="U20" s="281"/>
+      <c r="V20" s="281"/>
+      <c r="W20" s="282"/>
       <c r="X20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
-      <c r="AC20" s="268"/>
-      <c r="AD20" s="267"/>
+      <c r="AC20" s="269"/>
+      <c r="AD20" s="268"/>
       <c r="AE20" s="267"/>
-      <c r="AF20" s="267"/>
-      <c r="AG20" s="266"/>
-      <c r="AH20" s="266"/>
+      <c r="AF20" s="269"/>
+      <c r="AG20" s="265"/>
+      <c r="AH20" s="265"/>
       <c r="AI20" s="268"/>
-      <c r="AJ20" s="265"/>
+      <c r="AJ20" s="267"/>
       <c r="AK20" s="12"/>
       <c r="AL20" s="12"/>
       <c r="AM20" s="12"/>
     </row>
-    <row r="21" spans="1:39" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+    <row r="21" spans="1:41" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="250"/>
+      <c r="B21" s="225"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="225"/>
+      <c r="G21" s="245"/>
+      <c r="H21" s="242"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="247" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" s="247"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="248"/>
-      <c r="O21" s="248"/>
-      <c r="P21" s="249"/>
-      <c r="Q21" s="280" t="s">
-        <v>187</v>
-      </c>
-      <c r="R21" s="281"/>
-      <c r="S21" s="274"/>
-      <c r="T21" s="275"/>
-      <c r="U21" s="275"/>
-      <c r="V21" s="275"/>
-      <c r="W21" s="276"/>
+      <c r="J21" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="276"/>
+      <c r="L21" s="276"/>
+      <c r="M21" s="276"/>
+      <c r="N21" s="240" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="240"/>
+      <c r="P21" s="240"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="240"/>
+      <c r="S21" s="280"/>
+      <c r="T21" s="281"/>
+      <c r="U21" s="281"/>
+      <c r="V21" s="281"/>
+      <c r="W21" s="282"/>
       <c r="X21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
-      <c r="AC21" s="268"/>
-      <c r="AD21" s="267"/>
+      <c r="AC21" s="269"/>
+      <c r="AD21" s="268"/>
       <c r="AE21" s="267"/>
-      <c r="AF21" s="267"/>
-      <c r="AG21" s="266"/>
+      <c r="AF21" s="269"/>
+      <c r="AG21" s="265"/>
       <c r="AH21" s="266"/>
       <c r="AI21" s="268"/>
-      <c r="AJ21" s="265"/>
+      <c r="AJ21" s="267"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
       <c r="AM21" s="12"/>
     </row>
-    <row r="22" spans="1:39" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="250" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="251"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="170"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="170" t="s">
-        <v>181</v>
-      </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="194"/>
-      <c r="O22" s="194"/>
-      <c r="P22" s="196"/>
-      <c r="Q22" s="195"/>
-      <c r="R22" s="195"/>
-      <c r="S22" s="274"/>
-      <c r="T22" s="275"/>
-      <c r="U22" s="275"/>
-      <c r="V22" s="275"/>
-      <c r="W22" s="276"/>
+    <row r="22" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="251"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="243"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="280"/>
+      <c r="T22" s="281"/>
+      <c r="U22" s="281"/>
+      <c r="V22" s="281"/>
+      <c r="W22" s="282"/>
       <c r="X22" s="12"/>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
-      <c r="AC22" s="268"/>
-      <c r="AD22" s="267"/>
-      <c r="AE22" s="267"/>
-      <c r="AF22" s="267"/>
-      <c r="AG22" s="266"/>
-      <c r="AH22" s="266"/>
-      <c r="AI22" s="268"/>
-      <c r="AJ22" s="265"/>
+      <c r="AC22" s="274"/>
+      <c r="AD22" s="273"/>
+      <c r="AE22" s="273"/>
+      <c r="AF22" s="273"/>
+      <c r="AG22" s="272"/>
+      <c r="AH22" s="272"/>
+      <c r="AI22" s="274"/>
+      <c r="AJ22" s="271"/>
       <c r="AK22" s="12"/>
       <c r="AL22" s="12"/>
       <c r="AM22" s="12"/>
     </row>
-    <row r="23" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="242" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="243"/>
-      <c r="C23" s="188" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="188" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="188" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="188" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="247" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="247"/>
-      <c r="L23" s="247"/>
+    <row r="23" spans="1:41" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="253" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="253"/>
+      <c r="L23" s="253"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="282"/>
-      <c r="O23" s="282"/>
-      <c r="P23" s="282"/>
-      <c r="Q23" s="192" t="s">
-        <v>15</v>
-      </c>
-      <c r="R23" s="192"/>
-      <c r="S23" s="277"/>
-      <c r="T23" s="278"/>
-      <c r="U23" s="278"/>
-      <c r="V23" s="278"/>
-      <c r="W23" s="279"/>
+      <c r="N23" s="254"/>
+      <c r="O23" s="254"/>
+      <c r="P23" s="255"/>
+      <c r="Q23" s="286" t="s">
+        <v>187</v>
+      </c>
+      <c r="R23" s="287"/>
+      <c r="S23" s="280"/>
+      <c r="T23" s="281"/>
+      <c r="U23" s="281"/>
+      <c r="V23" s="281"/>
+      <c r="W23" s="282"/>
       <c r="X23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
-      <c r="AC23" s="268"/>
-      <c r="AD23" s="267"/>
-      <c r="AE23" s="267"/>
-      <c r="AF23" s="267"/>
-      <c r="AG23" s="266"/>
-      <c r="AH23" s="266"/>
-      <c r="AI23" s="268"/>
-      <c r="AJ23" s="265"/>
+      <c r="AC23" s="274"/>
+      <c r="AD23" s="273"/>
+      <c r="AE23" s="273"/>
+      <c r="AF23" s="273"/>
+      <c r="AG23" s="272"/>
+      <c r="AH23" s="272"/>
+      <c r="AI23" s="274"/>
+      <c r="AJ23" s="271"/>
       <c r="AK23" s="12"/>
       <c r="AL23" s="12"/>
       <c r="AM23" s="12"/>
     </row>
-    <row r="24" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="285"/>
-      <c r="B24" s="193" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="246" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="246"/>
-      <c r="E24" s="246" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="246"/>
-      <c r="G24" s="299" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="299"/>
-      <c r="I24" s="252" t="s">
-        <v>182</v>
-      </c>
-      <c r="J24" s="252"/>
-      <c r="K24" s="252"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="248"/>
-      <c r="O24" s="248"/>
-      <c r="P24" s="249"/>
-      <c r="Q24" s="187" t="s">
-        <v>15</v>
-      </c>
-      <c r="R24" s="187"/>
-      <c r="S24" s="187" t="s">
-        <v>13</v>
-      </c>
-      <c r="T24" s="187" t="s">
-        <v>13</v>
-      </c>
-      <c r="U24" s="128">
-        <f ca="1">TODAY()</f>
-        <v>44182</v>
-      </c>
-      <c r="V24" s="199" t="s">
-        <v>196</v>
-      </c>
-      <c r="W24" s="200"/>
+    <row r="24" spans="1:41" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="256" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="257"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="169"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="169" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="190"/>
+      <c r="P24" s="192"/>
+      <c r="Q24" s="191"/>
+      <c r="R24" s="191"/>
+      <c r="S24" s="280"/>
+      <c r="T24" s="281"/>
+      <c r="U24" s="281"/>
+      <c r="V24" s="281"/>
+      <c r="W24" s="282"/>
       <c r="X24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
-      <c r="AC24" s="268"/>
-      <c r="AD24" s="267"/>
-      <c r="AE24" s="267"/>
-      <c r="AF24" s="267"/>
-      <c r="AG24" s="266"/>
-      <c r="AH24" s="266"/>
-      <c r="AI24" s="268"/>
-      <c r="AJ24" s="265"/>
+      <c r="AC24" s="274"/>
+      <c r="AD24" s="273"/>
+      <c r="AE24" s="273"/>
+      <c r="AF24" s="273"/>
+      <c r="AG24" s="272"/>
+      <c r="AH24" s="272"/>
+      <c r="AI24" s="274"/>
+      <c r="AJ24" s="271"/>
       <c r="AK24" s="12"/>
       <c r="AL24" s="12"/>
       <c r="AM24" s="12"/>
     </row>
-    <row r="25" spans="1:39" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="286"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="252" t="s">
-        <v>174</v>
-      </c>
-      <c r="K25" s="252"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="209" t="s">
-        <v>175</v>
-      </c>
-      <c r="O25" s="209"/>
-      <c r="P25" s="209"/>
-      <c r="Q25" s="187" t="s">
+    <row r="25" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="248" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="249"/>
+      <c r="C25" s="184" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="184" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="184" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="184" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="253" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="253"/>
+      <c r="L25" s="253"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="288"/>
+      <c r="O25" s="288"/>
+      <c r="P25" s="288"/>
+      <c r="Q25" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187" t="s">
-        <v>13</v>
-      </c>
-      <c r="T25" s="187" t="s">
-        <v>13</v>
-      </c>
-      <c r="U25" s="167">
-        <f ca="1">TODAY()</f>
-        <v>44182</v>
-      </c>
-      <c r="V25" s="201"/>
-      <c r="W25" s="202"/>
+      <c r="R25" s="188"/>
+      <c r="S25" s="283"/>
+      <c r="T25" s="284"/>
+      <c r="U25" s="284"/>
+      <c r="V25" s="284"/>
+      <c r="W25" s="285"/>
       <c r="X25" s="12"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
-      <c r="AC25" s="268"/>
-      <c r="AD25" s="267"/>
-      <c r="AE25" s="267"/>
-      <c r="AF25" s="267"/>
-      <c r="AG25" s="266"/>
-      <c r="AH25" s="266"/>
-      <c r="AI25" s="268"/>
-      <c r="AJ25" s="265"/>
+      <c r="AC25" s="274"/>
+      <c r="AD25" s="273"/>
+      <c r="AE25" s="273"/>
+      <c r="AF25" s="273"/>
+      <c r="AG25" s="272"/>
+      <c r="AH25" s="272"/>
+      <c r="AI25" s="274"/>
+      <c r="AJ25" s="271"/>
       <c r="AK25" s="12"/>
       <c r="AL25" s="12"/>
       <c r="AM25" s="12"/>
     </row>
-    <row r="26" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="286"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="298" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="298"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="209" t="s">
-        <v>202</v>
-      </c>
-      <c r="O26" s="209"/>
-      <c r="P26" s="209"/>
-      <c r="Q26" s="187" t="s">
+    <row r="26" spans="1:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="291"/>
+      <c r="B26" s="189" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="252"/>
+      <c r="E26" s="252" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="252"/>
+      <c r="G26" s="305" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="305"/>
+      <c r="I26" s="258" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" s="258"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="258"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="254"/>
+      <c r="O26" s="254"/>
+      <c r="P26" s="255"/>
+      <c r="Q26" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="187"/>
-      <c r="S26" s="187" t="s">
+      <c r="R26" s="183"/>
+      <c r="S26" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="T26" s="187" t="s">
+      <c r="T26" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="U26" s="167">
+      <c r="U26" s="128">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
-      </c>
-      <c r="V26" s="201"/>
-      <c r="W26" s="202"/>
+        <v>44188</v>
+      </c>
+      <c r="V26" s="200" t="s">
+        <v>196</v>
+      </c>
+      <c r="W26" s="201"/>
       <c r="X26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
+      <c r="AC26" s="274"/>
+      <c r="AD26" s="273"/>
+      <c r="AE26" s="273"/>
+      <c r="AF26" s="273"/>
+      <c r="AG26" s="272"/>
+      <c r="AH26" s="272"/>
+      <c r="AI26" s="274"/>
+      <c r="AJ26" s="271"/>
       <c r="AK26" s="12"/>
       <c r="AL26" s="12"/>
       <c r="AM26" s="12"/>
     </row>
-    <row r="27" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="286"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="212"/>
+    <row r="27" spans="1:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="292"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="190" t="s">
-        <v>183</v>
-      </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="201"/>
-      <c r="W27" s="202"/>
+      <c r="J27" s="258" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="258"/>
+      <c r="L27" s="258"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="210" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" s="210"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="T27" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="U27" s="166">
+        <f ca="1">TODAY()</f>
+        <v>44188</v>
+      </c>
+      <c r="V27" s="202"/>
+      <c r="W27" s="203"/>
       <c r="X27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
+      <c r="AC27" s="274"/>
+      <c r="AD27" s="273"/>
+      <c r="AE27" s="273"/>
+      <c r="AF27" s="273"/>
+      <c r="AG27" s="272"/>
+      <c r="AH27" s="272"/>
+      <c r="AI27" s="274"/>
+      <c r="AJ27" s="271"/>
       <c r="AK27" s="12"/>
       <c r="AL27" s="12"/>
       <c r="AM27" s="12"/>
     </row>
-    <row r="28" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="287"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="212"/>
+    <row r="28" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="292"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="213"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="213"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="211" t="s">
-        <v>199</v>
-      </c>
-      <c r="L28" s="211"/>
-      <c r="M28" s="211"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="211"/>
-      <c r="Q28" s="211"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="201"/>
-      <c r="W28" s="202"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="304" t="s">
+        <v>176</v>
+      </c>
+      <c r="L28" s="304"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="210" t="s">
+        <v>202</v>
+      </c>
+      <c r="O28" s="210"/>
+      <c r="P28" s="210"/>
+      <c r="Q28" s="183" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="183" t="s">
+        <v>13</v>
+      </c>
+      <c r="U28" s="166">
+        <f ca="1">TODAY()</f>
+        <v>44188</v>
+      </c>
+      <c r="V28" s="202"/>
+      <c r="W28" s="203"/>
       <c r="X28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
@@ -4723,132 +4757,149 @@
       <c r="AL28" s="12"/>
       <c r="AM28" s="12"/>
     </row>
-    <row r="29" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="292" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="293"/>
-      <c r="C29" s="293"/>
-      <c r="D29" s="293"/>
-      <c r="E29" s="293"/>
-      <c r="F29" s="294"/>
-      <c r="G29" s="288" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" s="289"/>
+    <row r="29" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="292"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="210" t="s">
-        <v>177</v>
-      </c>
-      <c r="K29" s="210"/>
-      <c r="L29" s="210"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="209" t="s">
-        <v>178</v>
-      </c>
-      <c r="O29" s="209"/>
-      <c r="P29" s="209"/>
-      <c r="Q29" s="208" t="s">
-        <v>15</v>
-      </c>
-      <c r="R29" s="208"/>
-      <c r="S29" s="187" t="s">
-        <v>13</v>
-      </c>
-      <c r="T29" s="187" t="s">
-        <v>13</v>
-      </c>
-      <c r="U29" s="167">
-        <f ca="1">TODAY()</f>
-        <v>44182</v>
-      </c>
-      <c r="V29" s="201"/>
-      <c r="W29" s="202"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="186" t="s">
+        <v>183</v>
+      </c>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="202"/>
+      <c r="W29" s="203"/>
       <c r="X29" s="12"/>
-    </row>
-    <row r="30" spans="1:39" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="295"/>
-      <c r="B30" s="296"/>
-      <c r="C30" s="296"/>
-      <c r="D30" s="296"/>
-      <c r="E30" s="296"/>
-      <c r="F30" s="297"/>
-      <c r="G30" s="290"/>
-      <c r="H30" s="291"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+    </row>
+    <row r="30" spans="1:41" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="293"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="213"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="179" t="s">
-        <v>184</v>
-      </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="201"/>
-      <c r="W30" s="202"/>
+      <c r="K30" s="212" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="212"/>
+      <c r="M30" s="212"/>
+      <c r="N30" s="212"/>
+      <c r="O30" s="212"/>
+      <c r="P30" s="212"/>
+      <c r="Q30" s="212"/>
+      <c r="R30" s="212"/>
+      <c r="S30" s="212"/>
+      <c r="T30" s="212"/>
+      <c r="U30" s="212"/>
+      <c r="V30" s="202"/>
+      <c r="W30" s="203"/>
       <c r="X30" s="12"/>
-    </row>
-    <row r="31" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+    </row>
+    <row r="31" spans="1:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="298" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="299"/>
+      <c r="C31" s="299"/>
+      <c r="D31" s="299"/>
+      <c r="E31" s="299"/>
+      <c r="F31" s="300"/>
+      <c r="G31" s="294" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="295"/>
       <c r="I31" s="12"/>
-      <c r="J31" s="210" t="s">
-        <v>182</v>
-      </c>
-      <c r="K31" s="210"/>
-      <c r="L31" s="210"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="O31" s="209"/>
-      <c r="P31" s="209"/>
-      <c r="Q31" s="208" t="s">
+      <c r="J31" s="211" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="211"/>
+      <c r="L31" s="211"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="210" t="s">
+        <v>178</v>
+      </c>
+      <c r="O31" s="210"/>
+      <c r="P31" s="210"/>
+      <c r="Q31" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="R31" s="208"/>
-      <c r="S31" s="191" t="s">
+      <c r="R31" s="209"/>
+      <c r="S31" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="T31" s="191" t="s">
+      <c r="T31" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="U31" s="167">
+      <c r="U31" s="166">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
-      </c>
-      <c r="V31" s="203"/>
-      <c r="W31" s="204"/>
+        <v>44188</v>
+      </c>
+      <c r="V31" s="202"/>
+      <c r="W31" s="203"/>
       <c r="X31" s="12"/>
     </row>
-    <row r="32" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+    <row r="32" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="301"/>
+      <c r="B32" s="302"/>
+      <c r="C32" s="302"/>
+      <c r="D32" s="302"/>
+      <c r="E32" s="302"/>
+      <c r="F32" s="303"/>
+      <c r="G32" s="296"/>
+      <c r="H32" s="297"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
-      <c r="N32" s="179" t="s">
-        <v>201</v>
+      <c r="N32" s="176" t="s">
+        <v>184</v>
       </c>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
@@ -4857,11 +4908,11 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="11"/>
+      <c r="V32" s="202"/>
+      <c r="W32" s="203"/>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -4871,36 +4922,36 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="338" t="s">
-        <v>210</v>
-      </c>
-      <c r="K33" s="338"/>
-      <c r="L33" s="338"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="339" t="s">
-        <v>211</v>
-      </c>
-      <c r="O33" s="340"/>
-      <c r="P33" s="340"/>
-      <c r="Q33" s="208" t="s">
+      <c r="J33" s="211" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" s="211"/>
+      <c r="L33" s="211"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="210" t="s">
+        <v>200</v>
+      </c>
+      <c r="O33" s="210"/>
+      <c r="P33" s="210"/>
+      <c r="Q33" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="R33" s="208"/>
-      <c r="S33" s="198" t="s">
+      <c r="R33" s="209"/>
+      <c r="S33" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="T33" s="198" t="s">
+      <c r="T33" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="U33" s="167">
+      <c r="U33" s="166">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
-      </c>
-      <c r="V33" s="12"/>
-      <c r="W33" s="11"/>
+        <v>44188</v>
+      </c>
+      <c r="V33" s="204"/>
+      <c r="W33" s="205"/>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -4911,291 +4962,306 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="341"/>
-      <c r="L34" s="342" t="s">
-        <v>212</v>
-      </c>
-      <c r="M34" s="342"/>
-      <c r="N34" s="342"/>
-      <c r="O34" s="342"/>
-      <c r="P34" s="342"/>
-      <c r="Q34" s="342"/>
-      <c r="R34" s="342"/>
-      <c r="S34" s="342"/>
-      <c r="T34" s="342"/>
-      <c r="U34" s="342"/>
-      <c r="V34" s="342"/>
-      <c r="W34" s="343"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="176" t="s">
+        <v>201</v>
+      </c>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="11"/>
       <c r="X34" s="12"/>
     </row>
-    <row r="35" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="214" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="214"/>
-      <c r="K35" s="214"/>
-      <c r="L35" s="214"/>
-      <c r="M35" s="187" t="s">
-        <v>185</v>
-      </c>
-      <c r="N35" s="132"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="206" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="218" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="218"/>
+      <c r="L35" s="218"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="216" t="s">
+        <v>211</v>
+      </c>
+      <c r="O35" s="217"/>
+      <c r="P35" s="217"/>
+      <c r="Q35" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="206"/>
-      <c r="S35" s="185" t="s">
+      <c r="R35" s="209"/>
+      <c r="S35" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="T35" s="185" t="s">
+      <c r="T35" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="U35" s="168">
+      <c r="U35" s="166">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
-      </c>
-      <c r="V35" s="199" t="s">
-        <v>190</v>
-      </c>
-      <c r="W35" s="200"/>
+        <v>44188</v>
+      </c>
+      <c r="V35" s="12"/>
+      <c r="W35" s="11"/>
       <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="214" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="214"/>
-      <c r="H36" s="214"/>
-      <c r="I36" s="214"/>
-      <c r="J36" s="214"/>
-      <c r="K36" s="214"/>
-      <c r="L36" s="214"/>
-      <c r="M36" s="182" t="s">
-        <v>172</v>
-      </c>
-      <c r="N36" s="132" t="s">
-        <v>152</v>
-      </c>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="206" t="s">
-        <v>15</v>
-      </c>
-      <c r="R36" s="206"/>
-      <c r="S36" s="185" t="s">
-        <v>13</v>
-      </c>
-      <c r="T36" s="185" t="s">
-        <v>13</v>
-      </c>
-      <c r="U36" s="128">
-        <f t="shared" ref="U36:U39" ca="1" si="0">TODAY()</f>
-        <v>44182</v>
-      </c>
-      <c r="V36" s="201"/>
-      <c r="W36" s="202"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="219" t="s">
+        <v>212</v>
+      </c>
+      <c r="M36" s="219"/>
+      <c r="N36" s="219"/>
+      <c r="O36" s="219"/>
+      <c r="P36" s="219"/>
+      <c r="Q36" s="219"/>
+      <c r="R36" s="219"/>
+      <c r="S36" s="219"/>
+      <c r="T36" s="219"/>
+      <c r="U36" s="219"/>
+      <c r="V36" s="219"/>
+      <c r="W36" s="220"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="213" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="213"/>
-      <c r="M37" s="213"/>
+      <c r="F37" s="215" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="183" t="s">
+        <v>185</v>
+      </c>
       <c r="N37" s="132"/>
       <c r="O37" s="103"/>
       <c r="P37" s="103"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
-      <c r="S37" s="185"/>
-      <c r="T37" s="185"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="201"/>
-      <c r="W37" s="202"/>
+      <c r="Q37" s="207" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" s="207"/>
+      <c r="S37" s="181" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" s="181" t="s">
+        <v>13</v>
+      </c>
+      <c r="U37" s="167">
+        <f ca="1">TODAY()</f>
+        <v>44188</v>
+      </c>
+      <c r="V37" s="200" t="s">
+        <v>190</v>
+      </c>
+      <c r="W37" s="201"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="214" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="214"/>
-      <c r="K38" s="214"/>
-      <c r="L38" s="214"/>
-      <c r="M38" s="187" t="s">
-        <v>120</v>
-      </c>
-      <c r="N38" s="132"/>
-      <c r="O38" s="103" t="s">
-        <v>121</v>
-      </c>
+      <c r="F38" s="215" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="215"/>
+      <c r="L38" s="215"/>
+      <c r="M38" s="179" t="s">
+        <v>172</v>
+      </c>
+      <c r="N38" s="132" t="s">
+        <v>152</v>
+      </c>
+      <c r="O38" s="103"/>
       <c r="P38" s="103"/>
-      <c r="Q38" s="206" t="s">
+      <c r="Q38" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="R38" s="206"/>
-      <c r="S38" s="185" t="s">
+      <c r="R38" s="207"/>
+      <c r="S38" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="T38" s="185" t="s">
+      <c r="T38" s="181" t="s">
         <v>13</v>
       </c>
       <c r="U38" s="128">
-        <f t="shared" ca="1" si="0"/>
-        <v>44182</v>
-      </c>
-      <c r="V38" s="201"/>
-      <c r="W38" s="202"/>
+        <f t="shared" ref="U38:U41" ca="1" si="0">TODAY()</f>
+        <v>44188</v>
+      </c>
+      <c r="V38" s="202"/>
+      <c r="W38" s="203"/>
       <c r="X38" s="12"/>
     </row>
-    <row r="39" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="205" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="205"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="205"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="207" t="s">
-        <v>189</v>
-      </c>
-      <c r="M39" s="207"/>
-      <c r="N39" s="207"/>
-      <c r="O39" s="103" t="s">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="214" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="214"/>
+      <c r="J39" s="214"/>
+      <c r="K39" s="214"/>
+      <c r="L39" s="214"/>
+      <c r="M39" s="214"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="181"/>
+      <c r="U39" s="128"/>
+      <c r="V39" s="202"/>
+      <c r="W39" s="203"/>
+      <c r="X39" s="12"/>
+    </row>
+    <row r="40" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="215" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="215"/>
+      <c r="M40" s="183" t="s">
+        <v>120</v>
+      </c>
+      <c r="N40" s="132"/>
+      <c r="O40" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="206" t="s">
+      <c r="P40" s="103"/>
+      <c r="Q40" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="R39" s="206"/>
-      <c r="S39" s="185" t="s">
+      <c r="R40" s="207"/>
+      <c r="S40" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="T39" s="185" t="s">
+      <c r="T40" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="U39" s="167">
+      <c r="U40" s="128">
         <f t="shared" ca="1" si="0"/>
-        <v>44182</v>
-      </c>
-      <c r="V39" s="203"/>
-      <c r="W39" s="204"/>
-      <c r="X39" s="12"/>
-    </row>
-    <row r="40" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="15"/>
+        <v>44188</v>
+      </c>
+      <c r="V40" s="202"/>
+      <c r="W40" s="203"/>
       <c r="X40" s="12"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
+      <c r="D41" s="206" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="206"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="208" t="s">
+        <v>189</v>
+      </c>
+      <c r="M41" s="208"/>
+      <c r="N41" s="208"/>
+      <c r="O41" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="207" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" s="207"/>
+      <c r="S41" s="181" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41" s="181" t="s">
+        <v>13</v>
+      </c>
+      <c r="U41" s="166">
+        <f t="shared" ca="1" si="0"/>
+        <v>44188</v>
+      </c>
+      <c r="V41" s="204"/>
+      <c r="W41" s="205"/>
       <c r="X41" s="12"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
+    <row r="42" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="133"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="15"/>
       <c r="X42" s="12"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
@@ -5224,135 +5290,188 @@
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
     </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="130"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="130"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="127">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="A29:F30"/>
-    <mergeCell ref="E26:F26"/>
+  <mergeCells count="128">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="A31:F32"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="V24:W31"/>
-    <mergeCell ref="S13:W23"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="AC20:AC25"/>
-    <mergeCell ref="AD20:AD25"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="AJ20:AJ25"/>
-    <mergeCell ref="AH20:AH25"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="V26:W33"/>
+    <mergeCell ref="S15:W25"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="AC22:AC27"/>
+    <mergeCell ref="AD22:AD27"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="AJ22:AJ27"/>
+    <mergeCell ref="AH22:AH27"/>
     <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AF20:AF25"/>
-    <mergeCell ref="AG20:AG25"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="AE17:AE19"/>
-    <mergeCell ref="AE20:AE25"/>
-    <mergeCell ref="AI20:AI23"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AF22:AF27"/>
+    <mergeCell ref="AG22:AG27"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AE22:AE27"/>
+    <mergeCell ref="AI22:AI25"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AI26:AI27"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="AH3:AM3"/>
     <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AH18:AH19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AD19:AD21"/>
     <mergeCell ref="AA3:AF3"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="AD4:AE4"/>
     <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="J27:L27"/>
     <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="P2:W2"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E16:E22"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="R11:W12"/>
-    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="R13:W14"/>
+    <mergeCell ref="I13:Q13"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="N14:Q14"/>
     <mergeCell ref="N15:R15"/>
     <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N17:R17"/>
     <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
     <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="F14:F20"/>
-    <mergeCell ref="H14:H20"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G22"/>
     <mergeCell ref="S8:T8"/>
-    <mergeCell ref="V35:W39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="K28:U28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="V37:W41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="L41:N41"/>
     <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="K30:U30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="F40:L40"/>
     <mergeCell ref="F38:L38"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="J33:L33"/>
     <mergeCell ref="N33:P33"/>
     <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="L34:W34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="L36:W36"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.39370078740157483" footer="0"/>
@@ -5371,6 +5490,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="51" zoomScaleNormal="70" zoomScaleSheetLayoutView="51" workbookViewId="0">
@@ -5395,21 +5515,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="302"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="308"/>
     </row>
     <row r="2" spans="1:13" ht="184.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -5516,6 +5636,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
@@ -5551,11 +5672,11 @@
       <c r="F1" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="303" t="s">
+      <c r="G1" s="309" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="304"/>
-      <c r="I1" s="305"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="311"/>
       <c r="J1" s="97" t="s">
         <v>96</v>
       </c>
@@ -6132,6 +6253,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -6178,12 +6300,12 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="317" t="s">
+      <c r="G2" s="323" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -6196,28 +6318,28 @@
       <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="326" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="322" t="s">
+      <c r="B3" s="327"/>
+      <c r="C3" s="327"/>
+      <c r="D3" s="327"/>
+      <c r="E3" s="327"/>
+      <c r="F3" s="327"/>
+      <c r="G3" s="327"/>
+      <c r="H3" s="327"/>
+      <c r="I3" s="327"/>
+      <c r="J3" s="327"/>
+      <c r="K3" s="328" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="322"/>
-      <c r="M3" s="322"/>
-      <c r="N3" s="322"/>
-      <c r="O3" s="206" t="s">
+      <c r="L3" s="328"/>
+      <c r="M3" s="328"/>
+      <c r="N3" s="328"/>
+      <c r="O3" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="206"/>
+      <c r="P3" s="207"/>
       <c r="Q3" s="112" t="s">
         <v>13</v>
       </c>
@@ -6226,7 +6348,7 @@
       </c>
       <c r="S3" s="129">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
+        <v>44188</v>
       </c>
       <c r="T3" s="6"/>
     </row>
@@ -6275,11 +6397,11 @@
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="323" t="s">
+      <c r="A6" s="329" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="324"/>
-      <c r="C6" s="324"/>
+      <c r="B6" s="330"/>
+      <c r="C6" s="330"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -6299,11 +6421,11 @@
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="323" t="s">
+      <c r="A7" s="329" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="324"/>
-      <c r="C7" s="324"/>
+      <c r="B7" s="330"/>
+      <c r="C7" s="330"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -6323,11 +6445,11 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A8" s="323" t="s">
+      <c r="A8" s="329" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="324"/>
-      <c r="C8" s="324"/>
+      <c r="B8" s="330"/>
+      <c r="C8" s="330"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -6417,20 +6539,20 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="306" t="s">
+      <c r="E12" s="312" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="307"/>
-      <c r="G12" s="307"/>
-      <c r="H12" s="307"/>
-      <c r="I12" s="307"/>
-      <c r="J12" s="307"/>
-      <c r="K12" s="307"/>
-      <c r="L12" s="307"/>
-      <c r="M12" s="307"/>
-      <c r="N12" s="307"/>
-      <c r="O12" s="307"/>
-      <c r="P12" s="307"/>
+      <c r="F12" s="313"/>
+      <c r="G12" s="313"/>
+      <c r="H12" s="313"/>
+      <c r="I12" s="313"/>
+      <c r="J12" s="313"/>
+      <c r="K12" s="313"/>
+      <c r="L12" s="313"/>
+      <c r="M12" s="313"/>
+      <c r="N12" s="313"/>
+      <c r="O12" s="313"/>
+      <c r="P12" s="313"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -6441,18 +6563,18 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="307"/>
-      <c r="H13" s="307"/>
-      <c r="I13" s="307"/>
-      <c r="J13" s="307"/>
-      <c r="K13" s="307"/>
-      <c r="L13" s="307"/>
-      <c r="M13" s="307"/>
-      <c r="N13" s="307"/>
-      <c r="O13" s="307"/>
-      <c r="P13" s="307"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="313"/>
+      <c r="L13" s="313"/>
+      <c r="M13" s="313"/>
+      <c r="N13" s="313"/>
+      <c r="O13" s="313"/>
+      <c r="P13" s="313"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -6463,18 +6585,18 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="307"/>
-      <c r="F14" s="307"/>
-      <c r="G14" s="307"/>
-      <c r="H14" s="307"/>
-      <c r="I14" s="307"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="307"/>
-      <c r="L14" s="307"/>
-      <c r="M14" s="307"/>
-      <c r="N14" s="307"/>
-      <c r="O14" s="307"/>
-      <c r="P14" s="307"/>
+      <c r="E14" s="313"/>
+      <c r="F14" s="313"/>
+      <c r="G14" s="313"/>
+      <c r="H14" s="313"/>
+      <c r="I14" s="313"/>
+      <c r="J14" s="313"/>
+      <c r="K14" s="313"/>
+      <c r="L14" s="313"/>
+      <c r="M14" s="313"/>
+      <c r="N14" s="313"/>
+      <c r="O14" s="313"/>
+      <c r="P14" s="313"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -6508,23 +6630,23 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="269" t="s">
+      <c r="F16" s="275" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="308"/>
-      <c r="H16" s="308"/>
-      <c r="I16" s="308"/>
-      <c r="J16" s="309" t="str">
-        <f>'лист титульный ПЗ'!N12</f>
+      <c r="G16" s="314"/>
+      <c r="H16" s="314"/>
+      <c r="I16" s="314"/>
+      <c r="J16" s="315" t="str">
+        <f>'лист титульный ПЗ'!N14</f>
         <v>Иванов И.И</v>
       </c>
-      <c r="K16" s="309"/>
-      <c r="L16" s="309"/>
-      <c r="M16" s="309"/>
-      <c r="N16" s="309"/>
-      <c r="O16" s="309"/>
-      <c r="P16" s="309"/>
-      <c r="Q16" s="309"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="315"/>
+      <c r="M16" s="315"/>
+      <c r="N16" s="315"/>
+      <c r="O16" s="315"/>
+      <c r="P16" s="315"/>
+      <c r="Q16" s="315"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="6"/>
@@ -6535,23 +6657,23 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="269" t="s">
+      <c r="F17" s="275" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="308"/>
-      <c r="H17" s="308"/>
-      <c r="I17" s="308"/>
-      <c r="J17" s="310" t="str">
-        <f>'лист титульный ПЗ'!N13</f>
+      <c r="G17" s="314"/>
+      <c r="H17" s="314"/>
+      <c r="I17" s="314"/>
+      <c r="J17" s="316" t="str">
+        <f>'лист титульный ПЗ'!N15</f>
         <v>Петров П.П.</v>
       </c>
-      <c r="K17" s="310"/>
-      <c r="L17" s="310"/>
-      <c r="M17" s="310"/>
-      <c r="N17" s="310"/>
-      <c r="O17" s="310"/>
-      <c r="P17" s="310"/>
-      <c r="Q17" s="310"/>
+      <c r="K17" s="316"/>
+      <c r="L17" s="316"/>
+      <c r="M17" s="316"/>
+      <c r="N17" s="316"/>
+      <c r="O17" s="316"/>
+      <c r="P17" s="316"/>
+      <c r="Q17" s="316"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
@@ -6562,25 +6684,25 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="269" t="s">
+      <c r="F18" s="275" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="308"/>
-      <c r="H18" s="308"/>
-      <c r="I18" s="308"/>
-      <c r="J18" s="309" t="str">
-        <f>'лист титульный ПЗ'!N14</f>
+      <c r="G18" s="314"/>
+      <c r="H18" s="314"/>
+      <c r="I18" s="314"/>
+      <c r="J18" s="315" t="str">
+        <f>'лист титульный ПЗ'!N16</f>
         <v>г. Москва, ул. Нарвская, д.2</v>
       </c>
-      <c r="K18" s="311"/>
-      <c r="L18" s="311"/>
-      <c r="M18" s="311"/>
-      <c r="N18" s="311"/>
-      <c r="O18" s="311"/>
-      <c r="P18" s="311"/>
-      <c r="Q18" s="311"/>
-      <c r="R18" s="311"/>
-      <c r="S18" s="311"/>
+      <c r="K18" s="317"/>
+      <c r="L18" s="317"/>
+      <c r="M18" s="317"/>
+      <c r="N18" s="317"/>
+      <c r="O18" s="317"/>
+      <c r="P18" s="317"/>
+      <c r="Q18" s="317"/>
+      <c r="R18" s="317"/>
+      <c r="S18" s="317"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" ht="25.9" customHeight="1" x14ac:dyDescent="0.4">
@@ -6589,23 +6711,23 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="269" t="s">
+      <c r="F19" s="275" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="308"/>
-      <c r="H19" s="308"/>
-      <c r="I19" s="308"/>
-      <c r="J19" s="310" t="str">
-        <f>'лист титульный ПЗ'!N15</f>
+      <c r="G19" s="314"/>
+      <c r="H19" s="314"/>
+      <c r="I19" s="314"/>
+      <c r="J19" s="316" t="str">
+        <f>'лист титульный ПЗ'!N17</f>
         <v>восьмой</v>
       </c>
-      <c r="K19" s="310"/>
-      <c r="L19" s="310"/>
-      <c r="M19" s="310"/>
-      <c r="N19" s="310"/>
-      <c r="O19" s="310"/>
-      <c r="P19" s="310"/>
-      <c r="Q19" s="310"/>
+      <c r="K19" s="316"/>
+      <c r="L19" s="316"/>
+      <c r="M19" s="316"/>
+      <c r="N19" s="316"/>
+      <c r="O19" s="316"/>
+      <c r="P19" s="316"/>
+      <c r="Q19" s="316"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="6"/>
@@ -6616,23 +6738,23 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="269" t="s">
+      <c r="F20" s="275" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="308"/>
-      <c r="H20" s="308"/>
-      <c r="I20" s="308"/>
-      <c r="J20" s="310" t="str">
-        <f>'лист титульный ПЗ'!N16</f>
+      <c r="G20" s="314"/>
+      <c r="H20" s="314"/>
+      <c r="I20" s="314"/>
+      <c r="J20" s="316" t="str">
+        <f>'лист титульный ПЗ'!N18</f>
         <v>кухня</v>
       </c>
-      <c r="K20" s="310"/>
-      <c r="L20" s="310"/>
-      <c r="M20" s="310"/>
-      <c r="N20" s="310"/>
-      <c r="O20" s="310"/>
-      <c r="P20" s="310"/>
-      <c r="Q20" s="310"/>
+      <c r="K20" s="316"/>
+      <c r="L20" s="316"/>
+      <c r="M20" s="316"/>
+      <c r="N20" s="316"/>
+      <c r="O20" s="316"/>
+      <c r="P20" s="316"/>
+      <c r="Q20" s="316"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
@@ -6643,23 +6765,23 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="269" t="s">
+      <c r="F21" s="275" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="308"/>
-      <c r="H21" s="308"/>
-      <c r="I21" s="308"/>
-      <c r="J21" s="309" t="str">
-        <f>'лист титульный ПЗ'!N17</f>
+      <c r="G21" s="314"/>
+      <c r="H21" s="314"/>
+      <c r="I21" s="314"/>
+      <c r="J21" s="315" t="str">
+        <f>'лист титульный ПЗ'!N19</f>
         <v>гарнитур кухонный, дверной блок</v>
       </c>
-      <c r="K21" s="309"/>
-      <c r="L21" s="309"/>
-      <c r="M21" s="309"/>
-      <c r="N21" s="309"/>
-      <c r="O21" s="309"/>
-      <c r="P21" s="309"/>
-      <c r="Q21" s="309"/>
+      <c r="K21" s="315"/>
+      <c r="L21" s="315"/>
+      <c r="M21" s="315"/>
+      <c r="N21" s="315"/>
+      <c r="O21" s="315"/>
+      <c r="P21" s="315"/>
+      <c r="Q21" s="315"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="6"/>
@@ -6670,23 +6792,23 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="269" t="s">
+      <c r="F22" s="275" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="308"/>
-      <c r="H22" s="308"/>
-      <c r="I22" s="308"/>
-      <c r="J22" s="310">
-        <f>'лист титульный ПЗ'!N18</f>
+      <c r="G22" s="314"/>
+      <c r="H22" s="314"/>
+      <c r="I22" s="314"/>
+      <c r="J22" s="316">
+        <f>'лист титульный ПЗ'!N20</f>
         <v>500</v>
       </c>
-      <c r="K22" s="310"/>
-      <c r="L22" s="310"/>
-      <c r="M22" s="310"/>
-      <c r="N22" s="310"/>
-      <c r="O22" s="310"/>
-      <c r="P22" s="310"/>
-      <c r="Q22" s="310"/>
+      <c r="K22" s="316"/>
+      <c r="L22" s="316"/>
+      <c r="M22" s="316"/>
+      <c r="N22" s="316"/>
+      <c r="O22" s="316"/>
+      <c r="P22" s="316"/>
+      <c r="Q22" s="316"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="6"/>
@@ -6697,23 +6819,23 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="269" t="s">
+      <c r="F23" s="275" t="s">
         <v>140</v>
       </c>
-      <c r="G23" s="308"/>
-      <c r="H23" s="308"/>
-      <c r="I23" s="308"/>
-      <c r="J23" s="310" t="str">
-        <f>'лист титульный ПЗ'!N19</f>
+      <c r="G23" s="314"/>
+      <c r="H23" s="314"/>
+      <c r="I23" s="314"/>
+      <c r="J23" s="316" t="str">
+        <f>'лист титульный ПЗ'!N21</f>
         <v>1-15,16</v>
       </c>
-      <c r="K23" s="310"/>
-      <c r="L23" s="310"/>
-      <c r="M23" s="310"/>
-      <c r="N23" s="310"/>
-      <c r="O23" s="310"/>
-      <c r="P23" s="310"/>
-      <c r="Q23" s="310"/>
+      <c r="K23" s="316"/>
+      <c r="L23" s="316"/>
+      <c r="M23" s="316"/>
+      <c r="N23" s="316"/>
+      <c r="O23" s="316"/>
+      <c r="P23" s="316"/>
+      <c r="Q23" s="316"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="6"/>
@@ -6813,12 +6935,12 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="313"/>
-      <c r="I28" s="313"/>
-      <c r="J28" s="313"/>
+      <c r="H28" s="319"/>
+      <c r="I28" s="319"/>
+      <c r="J28" s="319"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -6831,29 +6953,29 @@
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="1:20" s="119" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="319" t="s">
+      <c r="A29" s="325" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="313"/>
-      <c r="C29" s="313"/>
-      <c r="D29" s="313"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="313"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="313"/>
-      <c r="I29" s="313"/>
-      <c r="J29" s="313"/>
-      <c r="K29" s="316" t="str">
-        <f>IF('лист титульный ПЗ'!N24=0,"",'лист титульный ПЗ'!N24)</f>
+      <c r="B29" s="319"/>
+      <c r="C29" s="319"/>
+      <c r="D29" s="319"/>
+      <c r="E29" s="319"/>
+      <c r="F29" s="319"/>
+      <c r="G29" s="319"/>
+      <c r="H29" s="319"/>
+      <c r="I29" s="319"/>
+      <c r="J29" s="319"/>
+      <c r="K29" s="322" t="str">
+        <f>IF('лист титульный ПЗ'!N26=0,"",'лист титульный ПЗ'!N26)</f>
         <v/>
       </c>
-      <c r="L29" s="316"/>
-      <c r="M29" s="316"/>
-      <c r="N29" s="316"/>
-      <c r="O29" s="316" t="s">
+      <c r="L29" s="322"/>
+      <c r="M29" s="322"/>
+      <c r="N29" s="322"/>
+      <c r="O29" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="P29" s="316"/>
+      <c r="P29" s="322"/>
       <c r="Q29" s="121" t="s">
         <v>13</v>
       </c>
@@ -6862,7 +6984,7 @@
       </c>
       <c r="S29" s="129">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
+        <v>44188</v>
       </c>
       <c r="T29" s="120"/>
     </row>
@@ -6895,12 +7017,12 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="312" t="s">
+      <c r="G31" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="313"/>
-      <c r="I31" s="313"/>
-      <c r="J31" s="313"/>
+      <c r="H31" s="319"/>
+      <c r="I31" s="319"/>
+      <c r="J31" s="319"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -6913,28 +7035,28 @@
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:20" s="119" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="314" t="s">
+      <c r="A32" s="320" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="313"/>
-      <c r="C32" s="313"/>
-      <c r="D32" s="313"/>
-      <c r="E32" s="313"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="313"/>
-      <c r="I32" s="313"/>
-      <c r="J32" s="313"/>
-      <c r="K32" s="315" t="s">
+      <c r="B32" s="319"/>
+      <c r="C32" s="319"/>
+      <c r="D32" s="319"/>
+      <c r="E32" s="319"/>
+      <c r="F32" s="319"/>
+      <c r="G32" s="319"/>
+      <c r="H32" s="319"/>
+      <c r="I32" s="319"/>
+      <c r="J32" s="319"/>
+      <c r="K32" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="315"/>
-      <c r="M32" s="315"/>
-      <c r="N32" s="315"/>
-      <c r="O32" s="316" t="s">
+      <c r="L32" s="321"/>
+      <c r="M32" s="321"/>
+      <c r="N32" s="321"/>
+      <c r="O32" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="316"/>
+      <c r="P32" s="322"/>
       <c r="Q32" s="121" t="s">
         <v>13</v>
       </c>
@@ -6943,33 +7065,33 @@
       </c>
       <c r="S32" s="129">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
+        <v>44188</v>
       </c>
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:20" s="119" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="314" t="s">
+      <c r="A33" s="320" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="313"/>
-      <c r="C33" s="313"/>
-      <c r="D33" s="313"/>
-      <c r="E33" s="313"/>
-      <c r="F33" s="313"/>
-      <c r="G33" s="313"/>
-      <c r="H33" s="313"/>
-      <c r="I33" s="313"/>
-      <c r="J33" s="313"/>
-      <c r="K33" s="315" t="s">
+      <c r="B33" s="319"/>
+      <c r="C33" s="319"/>
+      <c r="D33" s="319"/>
+      <c r="E33" s="319"/>
+      <c r="F33" s="319"/>
+      <c r="G33" s="319"/>
+      <c r="H33" s="319"/>
+      <c r="I33" s="319"/>
+      <c r="J33" s="319"/>
+      <c r="K33" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="315"/>
-      <c r="M33" s="315"/>
-      <c r="N33" s="315"/>
-      <c r="O33" s="316" t="s">
+      <c r="L33" s="321"/>
+      <c r="M33" s="321"/>
+      <c r="N33" s="321"/>
+      <c r="O33" s="322" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="316"/>
+      <c r="P33" s="322"/>
       <c r="Q33" s="121" t="s">
         <v>13</v>
       </c>
@@ -6978,7 +7100,7 @@
       </c>
       <c r="S33" s="129">
         <f ca="1">TODAY()</f>
-        <v>44182</v>
+        <v>44188</v>
       </c>
       <c r="T33" s="120"/>
     </row>
@@ -7073,6 +7195,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
@@ -7093,19 +7216,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="331" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="327"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="333"/>
     </row>
     <row r="2" spans="1:11" s="35" customFormat="1" ht="124.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="43" t="s">
@@ -7482,6 +7605,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="33" zoomScaleNormal="40" zoomScaleSheetLayoutView="33" workbookViewId="0">
@@ -7500,48 +7624,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="336" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
-      <c r="N1" s="331"/>
-      <c r="O1" s="331"/>
-      <c r="P1" s="331"/>
-      <c r="Q1" s="331"/>
-      <c r="R1" s="331"/>
-      <c r="S1" s="332"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="337"/>
+      <c r="P1" s="337"/>
+      <c r="Q1" s="337"/>
+      <c r="R1" s="337"/>
+      <c r="S1" s="338"/>
     </row>
     <row r="2" spans="1:19" s="76" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="339" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="333" t="s">
+      <c r="B2" s="339" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="333" t="s">
+      <c r="C2" s="339" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="333" t="s">
+      <c r="D2" s="339" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="333" t="s">
+      <c r="E2" s="339" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="333" t="s">
+      <c r="F2" s="339" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="333" t="s">
+      <c r="G2" s="339" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="77" t="s">
@@ -7550,11 +7674,11 @@
       <c r="I2" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="336" t="s">
+      <c r="J2" s="342" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
+      <c r="K2" s="343"/>
+      <c r="L2" s="343"/>
       <c r="M2" s="77" t="s">
         <v>80</v>
       </c>
@@ -7578,13 +7702,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="334"/>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
+      <c r="A3" s="340"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
       <c r="H3" s="72" t="s">
         <v>73</v>
       </c>
@@ -7623,24 +7747,24 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="334"/>
-      <c r="B4" s="334"/>
-      <c r="C4" s="334"/>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334"/>
+      <c r="A4" s="340"/>
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="340"/>
+      <c r="G4" s="340"/>
       <c r="H4" s="72" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="328" t="s">
+      <c r="J4" s="334" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="329"/>
-      <c r="L4" s="329"/>
+      <c r="K4" s="335"/>
+      <c r="L4" s="335"/>
       <c r="M4" s="73" t="s">
         <v>62</v>
       </c>
@@ -7664,24 +7788,24 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="66" customFormat="1" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="335"/>
-      <c r="B5" s="335"/>
-      <c r="C5" s="335"/>
-      <c r="D5" s="335"/>
-      <c r="E5" s="335"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="335"/>
+      <c r="A5" s="341"/>
+      <c r="B5" s="341"/>
+      <c r="C5" s="341"/>
+      <c r="D5" s="341"/>
+      <c r="E5" s="341"/>
+      <c r="F5" s="341"/>
+      <c r="G5" s="341"/>
       <c r="H5" s="72" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="328" t="s">
+      <c r="J5" s="334" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="329"/>
-      <c r="L5" s="329"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="335"/>
       <c r="M5" s="71" t="s">
         <v>52</v>
       </c>
@@ -8435,6 +8559,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
@@ -8458,21 +8583,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="325" t="s">
+      <c r="A1" s="331" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="327"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="333"/>
     </row>
     <row r="2" spans="1:13" s="35" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="86" t="s">
